--- a/sra-submission/SRA_metadata.08182023.xlsx
+++ b/sra-submission/SRA_metadata.08182023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/github/epv-safe-harbor/sra-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297A388-6CF0-884A-B672-27CCC9028D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9489451D-13AC-C645-BC8A-6F76E72EA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35200" yWindow="1240" windowWidth="32200" windowHeight="15240" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,9 +1393,6 @@
     <t>AAVS1-2</t>
   </si>
   <si>
-    <t>AAVS1=1</t>
-  </si>
-  <si>
     <t>Dep2-1</t>
   </si>
   <si>
@@ -1445,6 +1442,9 @@
   </si>
   <si>
     <t>GFP positive cells were cultured for three days and preserved in RNAlater. Total RNA was polyA selected and sequenced with paired end 150bp sequencing.</t>
+  </si>
+  <si>
+    <t>AAVS1-1</t>
   </si>
 </sst>
 </file>
@@ -1909,13 +1909,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2687,8 +2687,8 @@
   <dimension ref="A1:Q286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2792,7 +2792,7 @@
         <v>182</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>263</v>
@@ -2809,7 +2809,7 @@
         <v>299</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>262</v>
@@ -2833,7 +2833,7 @@
         <v>182</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>263</v>
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>262</v>
@@ -2874,7 +2874,7 @@
         <v>182</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>263</v>
@@ -2891,7 +2891,7 @@
         <v>301</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>262</v>
@@ -2915,7 +2915,7 @@
         <v>182</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>263</v>
@@ -2932,7 +2932,7 @@
         <v>302</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>262</v>
@@ -2956,7 +2956,7 @@
         <v>182</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>263</v>
@@ -2973,7 +2973,7 @@
         <v>303</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>262</v>
@@ -2997,7 +2997,7 @@
         <v>182</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>263</v>
@@ -3014,7 +3014,7 @@
         <v>304</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>262</v>
@@ -3038,7 +3038,7 @@
         <v>182</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>263</v>
@@ -3055,7 +3055,7 @@
         <v>305</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>262</v>
@@ -3079,7 +3079,7 @@
         <v>182</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>263</v>
@@ -3096,7 +3096,7 @@
         <v>306</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>262</v>
@@ -3120,7 +3120,7 @@
         <v>182</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>263</v>
@@ -3137,7 +3137,7 @@
         <v>307</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>262</v>
@@ -3161,7 +3161,7 @@
         <v>182</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>263</v>
@@ -3178,7 +3178,7 @@
         <v>308</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>262</v>
@@ -3202,7 +3202,7 @@
         <v>182</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>263</v>
@@ -3219,7 +3219,7 @@
         <v>309</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>262</v>
@@ -3243,7 +3243,7 @@
         <v>182</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>263</v>
@@ -3260,7 +3260,7 @@
         <v>310</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>262</v>
@@ -3284,7 +3284,7 @@
         <v>182</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>263</v>
@@ -3301,7 +3301,7 @@
         <v>311</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>262</v>
@@ -3325,7 +3325,7 @@
         <v>182</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>263</v>
@@ -3342,7 +3342,7 @@
         <v>312</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>262</v>
@@ -3366,7 +3366,7 @@
         <v>182</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>263</v>
@@ -3383,7 +3383,7 @@
         <v>313</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>262</v>
@@ -3407,7 +3407,7 @@
         <v>182</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>263</v>
@@ -3424,7 +3424,7 @@
         <v>314</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>262</v>
@@ -3448,7 +3448,7 @@
         <v>182</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>263</v>
@@ -3465,7 +3465,7 @@
         <v>315</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>262</v>
@@ -3489,7 +3489,7 @@
         <v>182</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>263</v>
@@ -5975,8 +5975,8 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6303,8 +6303,8 @@
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28" t="s">
@@ -6387,7 +6387,7 @@
       <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="43"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6984,38 +6984,25 @@
     <sortCondition ref="J87"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -7028,25 +7015,38 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
